--- a/加權指數資料.xlsx
+++ b/加權指數資料.xlsx
@@ -387,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4611"/>
+  <dimension ref="A1:B4612"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4584" workbookViewId="0">
-      <selection activeCell="J4610" sqref="J4610"/>
+      <selection activeCell="E4599" sqref="E4599"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -37287,6 +37287,14 @@
         <v>27651</v>
       </c>
     </row>
+    <row r="4612" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4612" s="1">
+        <v>45971</v>
+      </c>
+      <c r="B4612" s="2">
+        <v>27869</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/加權指數資料.xlsx
+++ b/加權指數資料.xlsx
@@ -16,11 +16,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Data</t>
+    <t>Close</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Close</t>
+    <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -29,7 +29,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -81,13 +81,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -387,24 +395,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4612"/>
+  <dimension ref="A1:B4613"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4584" workbookViewId="0">
-      <selection activeCell="E4599" sqref="E4599"/>
+    <sheetView tabSelected="1" topLeftCell="A4588" workbookViewId="0">
+      <selection activeCell="G4614" sqref="G4614:G4615"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -37288,11 +37296,19 @@
       </c>
     </row>
     <row r="4612" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4612" s="1">
+      <c r="A4612" s="5">
         <v>45971</v>
       </c>
-      <c r="B4612" s="2">
-        <v>27869</v>
+      <c r="B4612" s="3">
+        <v>27869.51</v>
+      </c>
+    </row>
+    <row r="4613" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4613" s="5">
+        <v>45972</v>
+      </c>
+      <c r="B4613" s="2">
+        <v>27784</v>
       </c>
     </row>
   </sheetData>

--- a/加權指數資料.xlsx
+++ b/加權指數資料.xlsx
@@ -395,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4613"/>
+  <dimension ref="A1:B4615"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4588" workbookViewId="0">
-      <selection activeCell="G4614" sqref="G4614:G4615"/>
+      <selection activeCell="B4616" sqref="B4616"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -37311,6 +37311,22 @@
         <v>27784</v>
       </c>
     </row>
+    <row r="4614" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4614" s="5">
+        <v>45973</v>
+      </c>
+      <c r="B4614" s="2">
+        <v>27947</v>
+      </c>
+    </row>
+    <row r="4615" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4615" s="5">
+        <v>45974</v>
+      </c>
+      <c r="B4615" s="2">
+        <v>27903</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
